--- a/data/trans_dic/P36B_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Edad-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,6 +633,15 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,15 +656,60 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>10,2%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21,4%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>63,03%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16,67%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>30,46%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24,05%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>65,94%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25,8%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22,01%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>64,44%</t>
         </is>
@@ -579,15 +724,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>7,65; 13,31</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17,91; 25,77</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 24,35</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>55,01; 70,93</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13,44; 20,3</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26,42; 34,91</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20,12; 28,45</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>59,03; 72,73</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 15,48</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22,98; 28,79</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19,3; 25,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>59,5; 69,79</t>
         </is>
@@ -606,15 +796,60 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>16,23%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30,85%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>25,4%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>65,82%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>24,5%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>43,03%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30,08%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>72,86%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20,03%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>36,58%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>27,68%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>69,6%</t>
         </is>
@@ -629,15 +864,60 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>13,63; 19,22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27,28; 34,58</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21,88; 29,22</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>60,0; 71,48</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21,11; 28,16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>38,72; 46,81</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26,26; 34,01</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>68,65; 77,56</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17,9; 22,3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>34,0; 39,42</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>25,17; 30,31</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>65,87; 73,31</t>
         </is>
@@ -656,15 +936,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>19,91%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36,59%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26,61%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>70,7%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25,83%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>47,85%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>36,63%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>76,28%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22,99%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>42,34%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>31,58%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>73,55%</t>
         </is>
@@ -679,15 +1004,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>17,09; 23,56</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33,17; 40,9</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>23,6; 30,67</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>66,44; 74,61</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>22,53; 29,53</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>43,93; 51,62</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>33,2; 40,6</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>73,17; 79,24</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20,88; 25,31</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>39,73; 44,92</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>29,33; 34,01</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>70,9; 76,05</t>
         </is>
@@ -706,15 +1076,60 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>24,17%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>36,87%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28,75%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>72,85%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>33,62%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>51,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>36,49%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>78,23%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28,88%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>43,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32,64%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>75,58%</t>
         </is>
@@ -729,15 +1144,60 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>20,14; 28,19</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32,65; 41,07</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24,88; 32,52</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>68,75; 79,47</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>29,38; 38,09</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>46,36; 55,22</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32,52; 40,34</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>74,84; 80,68</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>26,26; 32,01</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>40,77; 46,84</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29,79; 35,44</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>73,18; 78,59</t>
         </is>
@@ -756,15 +1216,60 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>29,07%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>43,12%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>31,98%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>72,83%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30,79%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>46,83%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39,31%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>79,17%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29,95%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>45,01%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35,71%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>76,0%</t>
         </is>
@@ -779,15 +1284,60 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>24,69; 34,19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>38,17; 48,19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27,75; 36,5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>68,94; 76,56</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>26,27; 35,45</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>41,64; 51,71</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>34,84; 43,99</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>76,52; 81,64</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>26,78; 33,2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>41,88; 48,44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>32,75; 39,18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>73,88; 78,28</t>
         </is>
@@ -806,15 +1356,60 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>30,28%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>46,62%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>32,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>75,82%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>34,64%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>51,8%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>40,49%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>81,47%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>32,78%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>49,58%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>36,82%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>79,18%</t>
         </is>
@@ -829,15 +1424,60 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>26,01; 33,75</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>41,73; 50,95</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>28,35; 35,55</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>73,04; 78,34</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>31,37; 38,5</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>48,04; 55,57</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36,82; 44,45</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>78,29; 87,19</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>30,18; 35,56</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>46,68; 52,19</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>34,04; 39,36</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>77,19; 83,67</t>
         </is>
@@ -856,15 +1496,60 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>35,92%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>71,12%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>46,15%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>35,38%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>77,1%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>41,13%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>31,62%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>74,28%</t>
         </is>
@@ -879,15 +1564,60 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>19,55; 22,29</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>34,02; 37,55</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26,1; 29,28</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>69,22; 73,14</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>26,39; 29,37</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>44,39; 47,97</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>33,71; 37,09</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>75,74; 79,32</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23,4; 25,59</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>39,8; 42,28</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>30,33; 32,76</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
         <is>
           <t>72,98; 75,99</t>
         </is>
@@ -901,14 +1631,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P36B_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 13,31</t>
+          <t>7,69; 13,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,91; 25,77</t>
+          <t>17,86; 25,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,37; 24,35</t>
+          <t>16,39; 24,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55,01; 70,93</t>
+          <t>55,91; 70,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,44; 20,3</t>
+          <t>13,31; 20,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,42; 34,91</t>
+          <t>26,34; 35,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,12; 28,45</t>
+          <t>20,01; 28,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,03; 72,73</t>
+          <t>58,66; 72,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,06; 15,48</t>
+          <t>11,29; 15,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,98; 28,79</t>
+          <t>22,87; 28,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,3; 25,21</t>
+          <t>19,27; 25,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,5; 69,79</t>
+          <t>59,28; 69,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,63; 19,22</t>
+          <t>13,68; 19,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,28; 34,58</t>
+          <t>27,5; 34,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,88; 29,22</t>
+          <t>22,06; 29,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,0; 71,48</t>
+          <t>60,09; 71,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,11; 28,16</t>
+          <t>20,98; 28,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,72; 46,81</t>
+          <t>39,07; 47,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,26; 34,01</t>
+          <t>26,23; 33,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68,65; 77,56</t>
+          <t>68,47; 77,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,9; 22,3</t>
+          <t>18,01; 22,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,0; 39,42</t>
+          <t>33,96; 39,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,17; 30,31</t>
+          <t>25,33; 30,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>65,87; 73,31</t>
+          <t>65,76; 73,39</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 23,56</t>
+          <t>16,7; 23,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,17; 40,9</t>
+          <t>32,67; 40,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,6; 30,67</t>
+          <t>23,27; 30,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>66,44; 74,61</t>
+          <t>66,54; 74,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,53; 29,53</t>
+          <t>22,68; 29,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,93; 51,62</t>
+          <t>43,94; 51,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,2; 40,6</t>
+          <t>32,92; 40,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>73,17; 79,24</t>
+          <t>73,18; 79,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,88; 25,31</t>
+          <t>20,69; 25,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,73; 44,92</t>
+          <t>39,68; 44,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,33; 34,01</t>
+          <t>29,09; 34,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>70,9; 76,05</t>
+          <t>70,87; 75,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,14; 28,19</t>
+          <t>20,53; 28,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,65; 41,07</t>
+          <t>32,54; 40,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,88; 32,52</t>
+          <t>25,16; 32,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68,75; 79,47</t>
+          <t>68,99; 79,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,38; 38,09</t>
+          <t>29,42; 37,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,36; 55,22</t>
+          <t>46,58; 55,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,52; 40,34</t>
+          <t>32,84; 40,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,84; 80,68</t>
+          <t>75,22; 80,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,26; 32,01</t>
+          <t>26,08; 32,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>40,77; 46,84</t>
+          <t>40,93; 46,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,79; 35,44</t>
+          <t>30,0; 35,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>73,18; 78,59</t>
+          <t>73,24; 78,55</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,69; 34,19</t>
+          <t>24,3; 33,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,17; 48,19</t>
+          <t>38,73; 48,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27,75; 36,5</t>
+          <t>27,59; 36,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68,94; 76,56</t>
+          <t>69,01; 75,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,27; 35,45</t>
+          <t>26,55; 35,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,64; 51,71</t>
+          <t>41,63; 51,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,84; 43,99</t>
+          <t>34,72; 44,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,52; 81,64</t>
+          <t>76,33; 81,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,78; 33,2</t>
+          <t>26,88; 33,15</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>41,88; 48,44</t>
+          <t>41,51; 48,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32,75; 39,18</t>
+          <t>32,61; 39,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>73,88; 78,28</t>
+          <t>73,54; 77,91</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,01; 33,75</t>
+          <t>26,07; 33,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,73; 50,95</t>
+          <t>42,09; 51,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,35; 35,55</t>
+          <t>28,38; 35,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>73,04; 78,34</t>
+          <t>73,11; 78,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,37; 38,5</t>
+          <t>30,97; 38,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,04; 55,57</t>
+          <t>48,0; 55,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>36,82; 44,45</t>
+          <t>36,6; 44,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>78,29; 87,19</t>
+          <t>78,47; 87,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,18; 35,56</t>
+          <t>29,93; 35,3</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>46,68; 52,19</t>
+          <t>46,68; 52,49</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>34,04; 39,36</t>
+          <t>34,23; 39,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>77,19; 83,67</t>
+          <t>77,15; 83,51</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,55; 22,29</t>
+          <t>19,56; 22,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34,02; 37,55</t>
+          <t>34,22; 37,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,1; 29,28</t>
+          <t>26,29; 29,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>69,22; 73,14</t>
+          <t>69,28; 73,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,39; 29,37</t>
+          <t>26,28; 29,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,39; 47,97</t>
+          <t>44,52; 48,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,71; 37,09</t>
+          <t>33,7; 37,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>75,74; 79,32</t>
+          <t>75,57; 79,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,4; 25,59</t>
+          <t>23,49; 25,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>39,8; 42,28</t>
+          <t>39,82; 42,3</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,33; 32,76</t>
+          <t>30,52; 32,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>72,98; 75,99</t>
+          <t>72,97; 75,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>63,03%</t>
+          <t>60,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>65,94%</t>
+          <t>63,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>64,44%</t>
+          <t>61,88%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55,91; 70,42</t>
+          <t>53,0; 69,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>58,66; 72,33</t>
+          <t>55,95; 70,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,28; 69,74</t>
+          <t>56,48; 67,63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>65,82%</t>
+          <t>64,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>72,86%</t>
+          <t>75,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>69,6%</t>
+          <t>70,26%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,09; 71,66</t>
+          <t>58,04; 70,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68,47; 77,37</t>
+          <t>69,71; 84,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>65,76; 73,39</t>
+          <t>66,19; 77,82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>70,7%</t>
+          <t>69,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>76,28%</t>
+          <t>75,78%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>73,55%</t>
+          <t>72,71%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>66,54; 74,8</t>
+          <t>65,41; 73,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>73,18; 79,43</t>
+          <t>72,5; 78,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>70,87; 75,94</t>
+          <t>70,02; 75,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>72,85%</t>
+          <t>78,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>78,23%</t>
+          <t>78,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>75,58%</t>
+          <t>78,48%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68,99; 79,14</t>
+          <t>68,96; 90,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>75,22; 80,7</t>
+          <t>75,83; 82,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>73,24; 78,55</t>
+          <t>73,71; 87,28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>72,83%</t>
+          <t>72,26%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>79,17%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>75,55%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>69,01; 75,98</t>
+          <t>68,27; 75,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,33; 81,63</t>
+          <t>76,07; 81,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>73,54; 77,91</t>
+          <t>73,05; 77,54</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>28,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>46,62%</t>
+          <t>46,23%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>75,82%</t>
+          <t>75,1%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>51,8%</t>
+          <t>51,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>40,49%</t>
+          <t>44,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>81,47%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>49,58%</t>
+          <t>49,24%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>38,59%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>79,18%</t>
+          <t>82,92%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,07; 33,93</t>
+          <t>23,49; 33,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,09; 51,12</t>
+          <t>39,97; 51,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,38; 35,64</t>
+          <t>27,42; 37,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>73,11; 78,48</t>
+          <t>71,62; 78,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,97; 38,27</t>
+          <t>31,07; 40,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,0; 55,7</t>
+          <t>46,21; 57,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>36,6; 44,22</t>
+          <t>39,1; 49,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>78,47; 87,34</t>
+          <t>80,55; 95,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>29,93; 35,3</t>
+          <t>28,77; 35,7</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>46,68; 52,49</t>
+          <t>45,06; 53,32</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>34,23; 39,69</t>
+          <t>34,87; 42,37</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>77,15; 83,51</t>
+          <t>77,68; 90,09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>32,98%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>35,92%</t>
+          <t>47,09%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>31,83%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>71,12%</t>
+          <t>75,52%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>46,15%</t>
+          <t>51,75%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>36,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>77,1%</t>
+          <t>76,39%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>41,13%</t>
+          <t>49,92%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>74,28%</t>
+          <t>76,05%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>26,76; 39,7</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40,87; 54,07</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26,95; 36,67</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>71,13; 79,11</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>28,67; 39,13</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>46,47; 57,15</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>31,47; 42,65</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>73,5; 79,39</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29,2; 37,49</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>45,77; 54,09</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>31,03; 38,9</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>73,64; 78,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>35,92%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>71,63%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>46,15%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>35,38%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>77,74%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>41,13%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>31,62%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>74,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>19,56; 22,33</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>34,22; 37,6</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>26,29; 29,24</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>69,28; 73,18</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>68,68; 78,1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>26,28; 29,32</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>44,52; 48,08</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>33,7; 37,01</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>75,57; 79,22</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>75,69; 82,06</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>23,49; 25,52</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>39,82; 42,3</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>30,52; 32,76</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>72,97; 75,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>72,9; 77,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P36B_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 13,17</t>
+          <t>7,74; 13,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,86; 25,43</t>
+          <t>17,74; 25,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,39; 24,5</t>
+          <t>16,41; 24,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,0; 69,03</t>
+          <t>51,63; 68,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,31; 20,37</t>
+          <t>13,46; 19,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,34; 35,29</t>
+          <t>26,05; 35,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,01; 28,46</t>
+          <t>20,01; 28,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,95; 70,52</t>
+          <t>55,0; 69,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 15,85</t>
+          <t>11,37; 15,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,87; 28,89</t>
+          <t>22,99; 28,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,27; 25,1</t>
+          <t>19,08; 24,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>56,48; 67,63</t>
+          <t>55,91; 67,56</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 19,46</t>
+          <t>13,47; 19,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,5; 34,43</t>
+          <t>27,37; 34,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,06; 29,1</t>
+          <t>21,58; 29,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>58,04; 70,02</t>
+          <t>58,46; 70,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,98; 28,12</t>
+          <t>21,22; 28,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,07; 47,13</t>
+          <t>39,0; 47,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,23; 33,79</t>
+          <t>26,5; 33,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>69,71; 84,13</t>
+          <t>70,02; 85,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,01; 22,79</t>
+          <t>17,92; 22,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>33,96; 39,54</t>
+          <t>33,91; 39,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,33; 30,6</t>
+          <t>25,21; 30,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>66,19; 77,82</t>
+          <t>65,94; 77,4</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,7; 23,24</t>
+          <t>17,07; 23,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,67; 40,22</t>
+          <t>33,02; 40,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,27; 30,15</t>
+          <t>22,94; 29,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>65,41; 73,79</t>
+          <t>65,28; 73,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,68; 29,53</t>
+          <t>22,91; 29,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,94; 51,48</t>
+          <t>44,11; 51,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,92; 40,45</t>
+          <t>33,3; 40,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>72,5; 78,89</t>
+          <t>72,7; 79,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,69; 25,35</t>
+          <t>20,82; 25,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,68; 44,96</t>
+          <t>39,7; 45,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,09; 34,09</t>
+          <t>28,9; 34,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>70,02; 75,21</t>
+          <t>70,19; 75,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,53; 28,33</t>
+          <t>20,27; 28,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,54; 40,98</t>
+          <t>33,2; 41,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,16; 32,56</t>
+          <t>25,17; 32,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68,96; 90,43</t>
+          <t>68,64; 90,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,42; 37,78</t>
+          <t>29,41; 37,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,58; 55,29</t>
+          <t>46,86; 55,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,84; 40,61</t>
+          <t>32,94; 40,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>75,83; 82,05</t>
+          <t>75,68; 82,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,08; 32,11</t>
+          <t>26,37; 31,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>40,93; 46,95</t>
+          <t>40,95; 46,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,0; 35,38</t>
+          <t>30,03; 35,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>73,71; 87,28</t>
+          <t>73,95; 87,52</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,3; 33,74</t>
+          <t>24,67; 33,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,73; 48,0</t>
+          <t>38,49; 48,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27,59; 36,99</t>
+          <t>27,64; 37,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68,27; 75,47</t>
+          <t>68,54; 75,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,55; 35,76</t>
+          <t>26,44; 35,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,63; 51,62</t>
+          <t>41,57; 51,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,72; 44,13</t>
+          <t>34,35; 43,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,07; 81,35</t>
+          <t>75,92; 81,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,88; 33,15</t>
+          <t>26,85; 33,21</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>41,51; 48,34</t>
+          <t>41,43; 48,71</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32,61; 39,16</t>
+          <t>32,59; 38,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>73,05; 77,54</t>
+          <t>73,13; 77,79</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,49; 33,5</t>
+          <t>23,25; 33,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,97; 51,94</t>
+          <t>40,49; 52,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,42; 37,28</t>
+          <t>27,08; 37,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>71,62; 78,72</t>
+          <t>71,04; 78,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,07; 40,63</t>
+          <t>30,68; 40,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>46,21; 57,07</t>
+          <t>46,49; 57,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,1; 49,45</t>
+          <t>39,57; 49,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>80,55; 95,58</t>
+          <t>80,38; 94,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,77; 35,7</t>
+          <t>28,79; 35,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>45,06; 53,32</t>
+          <t>45,04; 53,18</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>34,87; 42,37</t>
+          <t>35,02; 42,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>77,68; 90,09</t>
+          <t>77,68; 90,79</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,76; 39,7</t>
+          <t>26,45; 39,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>40,87; 54,07</t>
+          <t>40,61; 54,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,95; 36,67</t>
+          <t>26,56; 37,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>71,13; 79,11</t>
+          <t>70,71; 78,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,67; 39,13</t>
+          <t>28,25; 38,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,47; 57,15</t>
+          <t>46,47; 56,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,47; 42,65</t>
+          <t>31,45; 42,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>73,5; 79,39</t>
+          <t>73,5; 79,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>29,2; 37,49</t>
+          <t>29,52; 37,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>45,77; 54,09</t>
+          <t>45,82; 53,93</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>31,03; 38,9</t>
+          <t>31,39; 39,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>73,64; 78,31</t>
+          <t>73,51; 78,24</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,56; 22,33</t>
+          <t>19,53; 22,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>34,22; 37,6</t>
+          <t>34,31; 37,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,29; 29,24</t>
+          <t>26,1; 29,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>68,68; 78,1</t>
+          <t>68,72; 77,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,28; 29,32</t>
+          <t>26,32; 29,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>44,52; 48,08</t>
+          <t>44,42; 48,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>33,7; 37,01</t>
+          <t>33,64; 37,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>75,69; 82,06</t>
+          <t>75,69; 81,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,49; 25,52</t>
+          <t>23,34; 25,53</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>39,82; 42,3</t>
+          <t>39,86; 42,4</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>30,52; 32,76</t>
+          <t>30,48; 32,75</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>72,9; 77,91</t>
+          <t>72,8; 77,74</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume verduras y hortalizas a diario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>50373</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>97194</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>83599</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>242476</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>77732</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>130741</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>94716</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>198862</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>128105</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>227935</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>178315</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>441339</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>38241; 66641</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>80571; 116213</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>68328; 100936</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>206503; 274951</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>62779; 93038</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>111820; 150594</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>78809; 112671</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>172259; 218882</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>109211; 149657</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>203085; 254263</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>154596; 202028</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>398765; 481850</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>119376</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>211980</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>149475</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>271508</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>153261</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>262583</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>168380</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>384851</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>272637</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>474563</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>317855</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>656359</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>99035; 140853</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>188040; 238653</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>126973; 171308</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>247603; 297229</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>132714; 176880</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>238007; 288349</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>148346; 189205</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>357553; 435356</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>243903; 304152</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>439931; 510967</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>289479; 350313</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>615978; 723093</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1039</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>127148</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>249133</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>177771</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>373234</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>178194</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>339641</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>241524</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>411096</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>305342</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>588774</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>419294</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>784329</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>109035; 148237</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>224783; 277557</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>153299; 199741</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>350007; 394801</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>157989; 203436</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>313093; 367836</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>219609; 268623</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>394372; 429598</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>276555; 340735</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>552129; 628376</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>383624; 453816</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>757072; 814750</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1363</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>125482</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>225865</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>183699</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>695417</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>173338</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>312141</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>236058</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>559917</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>298820</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>538006</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>419758</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1255334</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>105229; 147111</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>203394; 252778</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>160835; 206476</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>609351; 801430</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>151666; 195448</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>286825; 340724</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>213056; 261863</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>538663; 585670</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>272873; 330244</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>501494; 574988</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>386185; 457285</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1182977; 1400040</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1277</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>112168</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>185180</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>151842</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>404281</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>124406</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>208849</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>193971</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>432361</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>236574</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>394030</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>345813</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>836642</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>95199; 129735</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>165284; 209565</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>131276; 177084</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>383504; 422468</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>106829; 144022</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>185370; 230780</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>169509; 215294</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>415961; 446455</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>212061; 262340</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>362688; 426383</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>315533; 376225</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>809826; 861425</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>82935</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>141807</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>107162</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>275872</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>122272</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>183556</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>166480</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>532318</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>205207</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>325363</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>273642</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>808189</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>68017; 99114</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>124184; 161059</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>90272; 125244</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>260970; 288916</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>105202; 140094</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>164578; 201939</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>148664; 186879</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>488105; 574631</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>182982; 227676</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>297612; 351398</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>248319; 298974</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>757072; 884825</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>69219</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>117150</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>81790</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>212984</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>112160</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>200282</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>147084</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>324358</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>181379</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>317432</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>228874</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>537340</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>55506; 82454</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>101038; 134497</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>68268; 95199</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>199429; 222760</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>94337; 129554</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>179872; 219765</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>125425; 169766</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>312057; 336301</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>160509; 204877</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>291352; 342886</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>205892; 256209</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>519457; 552872</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2425</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1157</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>4151</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1579</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>2665</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>2044</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>6576</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>686702</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1228309</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>935337</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2475771</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>941362</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1637794</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1248213</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2843761</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1628064</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>2866103</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2183550</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>5319533</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>639768; 736864</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1173373; 1295687</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>881498; 988985</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2375121; 2687668</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>889243; 996320</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1576366; 1704181</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1186791; 1309476</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>2768623; 2980853</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1552715; 1698620</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>2777249; 2954415</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2104957; 2261453</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>5178964; 5530774</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>